--- a/biology/Histoire de la zoologie et de la botanique/Odette_Tuzet/Odette_Tuzet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Odette_Tuzet/Odette_Tuzet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Odette Tuzet (Le Blanc, 5 décembre 1903 - Banyuls-sur-Mer, 20 septembre 1976[1]) est une zoologiste et biologiste française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odette Tuzet (Le Blanc, 5 décembre 1903 - Banyuls-sur-Mer, 20 septembre 1976) est une zoologiste et biologiste française.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née le 5 décembre 1903 à Le-Blanc (Indre), Odette Tuzet étudie à la Faculté des sciences de Montpellier où elle obtient la licence ès sciences avec les certificats de SPCN mathématiques générales, zoologie, botanique, géologie et biologie générale[2]. Elle est proposée au titre de professeur titulaire à cette même faculté, par le professeur P. Mathias, en mars 1947[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née le 5 décembre 1903 à Le-Blanc (Indre), Odette Tuzet étudie à la Faculté des sciences de Montpellier où elle obtient la licence ès sciences avec les certificats de SPCN mathématiques générales, zoologie, botanique, géologie et biologie générale. Elle est proposée au titre de professeur titulaire à cette même faculté, par le professeur P. Mathias, en mars 1947.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxon décrit en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Furcifer tuzetae (Brygoo, Bourgat &amp; Domergue, 1972)[4]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Furcifer tuzetae (Brygoo, Bourgat &amp; Domergue, 1972)</t>
         </is>
       </c>
     </row>
